--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -479,6 +479,15 @@
       <c r="E2" s="2">
         <v>0.21</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.36</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -488,6 +488,9 @@
       <c r="H2" s="2">
         <v>0.36</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.43</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -491,6 +491,9 @@
       <c r="I2" s="2">
         <v>0.43</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.44</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -494,6 +494,9 @@
       <c r="J2" s="2">
         <v>0.44</v>
       </c>
+      <c r="K2" s="2">
+        <v>0.49</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -497,6 +497,9 @@
       <c r="K2" s="2">
         <v>0.49</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.59</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/SELIC mensal.xlsx
+++ b/indexer_lib/data/SELIC mensal.xlsx
@@ -500,6 +500,9 @@
       <c r="L2" s="2">
         <v>0.59</v>
       </c>
+      <c r="M2" s="2">
+        <v>0.77</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
